--- a/doc/Calcolo prezzi e token vesting.xlsx
+++ b/doc/Calcolo prezzi e token vesting.xlsx
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -843,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -867,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="17">
-        <v>253.01</v>
+        <v>321.73</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1">
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="18">
-        <v>308.62</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="6" customHeight="1" thickBot="1"/>
@@ -894,7 +894,7 @@
       </c>
       <c r="B20" s="15">
         <f>$B$7/$B$13</f>
-        <v>6250000000</v>
+        <v>12500000000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -902,8 +902,8 @@
         <v>6</v>
       </c>
       <c r="B21" s="6">
-        <f>B20/(1-$B$14)</f>
-        <v>7812500000</v>
+        <f>B20/(1+$B$14)</f>
+        <v>10416666666.666668</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -912,7 +912,7 @@
       </c>
       <c r="B22" s="11">
         <f>B21/$B$17</f>
-        <v>25314302.378329337</v>
+        <v>26041666.666666672</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -930,7 +930,7 @@
       </c>
       <c r="B24" s="23">
         <f>B23/B21*$B$16</f>
-        <v>22669.695999999996</v>
+        <v>21620.255999999998</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -939,7 +939,7 @@
       </c>
       <c r="B25" s="11">
         <f>B19*B20</f>
-        <v>1875000000000</v>
+        <v>3750000000000</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -948,7 +948,7 @@
       </c>
       <c r="B26" s="11">
         <f>$B$7-B25</f>
-        <v>23125000000000</v>
+        <v>21250000000000</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -966,7 +966,7 @@
       </c>
       <c r="B28" s="6">
         <f>B27*B21</f>
-        <v>468750000000</v>
+        <v>625000000000.00012</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -975,7 +975,7 @@
       </c>
       <c r="B29" s="6">
         <f>$B$6-B28</f>
-        <v>19531250000000</v>
+        <v>19375000000000</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -993,7 +993,7 @@
       </c>
       <c r="B31" s="16">
         <f>$B$16*B30</f>
-        <v>60722.399999999994</v>
+        <v>77215.200000000012</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B32" s="8">
         <f>$B$17*B30</f>
-        <v>74068.800000000003</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B33" s="16">
         <f>B31*0.25</f>
-        <v>15180.599999999999</v>
+        <v>19303.800000000003</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" thickBot="1">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B34" s="9">
         <f>B32*0.25</f>
-        <v>18517.2</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="6.6" customHeight="1" thickBot="1"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B37" s="15">
         <f>$B$7/$B$13</f>
-        <v>6250000000</v>
+        <v>12500000000</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1047,8 +1047,8 @@
         <v>6</v>
       </c>
       <c r="B38" s="6">
-        <f>B37/(1-$B$14)</f>
-        <v>7812500000</v>
+        <f>B37/(1+$B$14)</f>
+        <v>10416666666.666668</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B39" s="11">
         <f>B38/$B$17</f>
-        <v>25314302.378329337</v>
+        <v>26041666.666666672</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="B41" s="23">
         <f>B40/B38*$B$16</f>
-        <v>22669.695999999996</v>
+        <v>21620.255999999998</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B42" s="11">
         <f>B36*B37</f>
-        <v>6250000000000</v>
+        <v>12500000000000</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B43" s="11">
         <f>$B$7-B42</f>
-        <v>18750000000000</v>
+        <v>12500000000000</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B45" s="6">
         <f>B44*B38</f>
-        <v>1562500000000</v>
+        <v>2083333333333.3335</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B46" s="6">
         <f>$B$6-B45</f>
-        <v>18437500000000</v>
+        <v>17916666666666.668</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B48" s="16">
         <f>$B$16*B47</f>
-        <v>202408</v>
+        <v>257384</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B49" s="8">
         <f>$B$17*B47</f>
-        <v>246896</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B50" s="16">
         <f>B48*0.25</f>
-        <v>50602</v>
+        <v>64346</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" thickBot="1">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B51" s="9">
         <f>B49*0.25</f>
-        <v>61724</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="7.2" customHeight="1" thickBot="1"/>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B53" s="13">
         <f>B13</f>
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B54" s="15">
         <f>$B$7/$B$13</f>
-        <v>6250000000</v>
+        <v>12500000000</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1192,8 +1192,8 @@
         <v>6</v>
       </c>
       <c r="B55" s="6">
-        <f>B54/(1-$B$14)</f>
-        <v>7812500000</v>
+        <f>B54/(1+$B$14)</f>
+        <v>10416666666.666668</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B56" s="11">
         <f>B55/$B$17</f>
-        <v>25314302.378329337</v>
+        <v>26041666.666666672</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="B58" s="23">
         <f>B57/B55*$B$16</f>
-        <v>22669.695999999996</v>
+        <v>21620.255999999998</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B61" s="7">
         <f>B53*$B$10</f>
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B62" s="6">
         <f>B61*B55</f>
-        <v>6250000000000</v>
+        <v>4166666666666.667</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B63" s="6">
         <f>$B$6-B62</f>
-        <v>13750000000000</v>
+        <v>15833333333333.332</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B64" s="7">
         <f>B53-B61</f>
-        <v>3200</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B65" s="16">
         <f>$B$16*B64</f>
-        <v>809632</v>
+        <v>514768</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B66" s="8">
         <f>$B$17*B64</f>
-        <v>987584</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B67" s="16">
         <f>B65*0.25</f>
-        <v>202408</v>
+        <v>128692</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" thickBot="1">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B68" s="9">
         <f>B66*0.25</f>
-        <v>246896</v>
+        <v>160000</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Calcolo prezzi e token vesting.xlsx
+++ b/doc/Calcolo prezzi e token vesting.xlsx
@@ -726,13 +726,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="88.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -851,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="19">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -903,7 +903,7 @@
       </c>
       <c r="B21" s="6">
         <f>B20/(1+$B$14)</f>
-        <v>10416666666.666668</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -912,7 +912,7 @@
       </c>
       <c r="B22" s="11">
         <f>B21/$B$17</f>
-        <v>26041666.666666672</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -930,7 +930,7 @@
       </c>
       <c r="B24" s="23">
         <f>B23/B21*$B$16</f>
-        <v>21620.255999999998</v>
+        <v>22521.100000000002</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -966,7 +966,7 @@
       </c>
       <c r="B28" s="6">
         <f>B27*B21</f>
-        <v>625000000000.00012</v>
+        <v>600000000000</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -975,7 +975,7 @@
       </c>
       <c r="B29" s="6">
         <f>$B$6-B28</f>
-        <v>19375000000000</v>
+        <v>19400000000000</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B38" s="6">
         <f>B37/(1+$B$14)</f>
-        <v>10416666666.666668</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B39" s="11">
         <f>B38/$B$17</f>
-        <v>26041666.666666672</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="B41" s="23">
         <f>B40/B38*$B$16</f>
-        <v>21620.255999999998</v>
+        <v>22521.100000000002</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B45" s="6">
         <f>B44*B38</f>
-        <v>2083333333333.3335</v>
+        <v>2000000000000</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B46" s="6">
         <f>$B$6-B45</f>
-        <v>17916666666666.668</v>
+        <v>18000000000000</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B55" s="6">
         <f>B54/(1+$B$14)</f>
-        <v>10416666666.666668</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B56" s="11">
         <f>B55/$B$17</f>
-        <v>26041666.666666672</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="B58" s="23">
         <f>B57/B55*$B$16</f>
-        <v>21620.255999999998</v>
+        <v>22521.100000000002</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B62" s="6">
         <f>B61*B55</f>
-        <v>4166666666666.667</v>
+        <v>4000000000000</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B63" s="6">
         <f>$B$6-B62</f>
-        <v>15833333333333.332</v>
+        <v>16000000000000</v>
       </c>
     </row>
     <row r="64" spans="1:2">
